--- a/Experiments/DBCV_PointNet.xlsx
+++ b/Experiments/DBCV_PointNet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="117">
   <si>
     <t>Datapoints</t>
   </si>
@@ -362,12 +362,30 @@
   <si>
     <t>19.771 secs</t>
   </si>
+  <si>
+    <t>Nan</t>
+  </si>
+  <si>
+    <t>5683.091 secs</t>
+  </si>
+  <si>
+    <t>71.232 secs</t>
+  </si>
+  <si>
+    <t>181.386 secs</t>
+  </si>
+  <si>
+    <t>TEST DATASET</t>
+  </si>
+  <si>
+    <t>641.189 secs</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -391,6 +409,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -423,7 +449,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -439,6 +465,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -744,10 +771,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -769,175 +796,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="G1" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>1000</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="3">
-        <v>303</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="3">
-        <v>512</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="3">
-        <v>2</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-    </row>
-    <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>1000</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="3">
-        <v>169</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="3">
-        <v>512</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="3">
-        <v>154</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-    </row>
-    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>1000</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="3">
-        <v>175</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="3">
-        <v>512</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="3">
-        <v>154</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
     </row>
     <row r="5" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>1000</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C5" s="3">
-        <v>175</v>
+        <v>303</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E5" s="3">
         <v>512</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="2"/>
@@ -945,13 +871,13 @@
         <v>2</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -961,33 +887,33 @@
         <v>1000</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="C6" s="3">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E6" s="3">
         <v>512</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="3">
-        <v>2</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>39</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G6" s="3">
+        <v>154</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="2"/>
       <c r="K6" s="2" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -997,33 +923,33 @@
         <v>1000</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C7" s="3">
         <v>175</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="E7" s="3">
         <v>512</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="G7" s="3">
         <v>154</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1033,59 +959,55 @@
         <v>1000</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="C8" s="3">
         <v>175</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="E8" s="3">
         <v>512</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="3">
-        <v>154</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="4" t="s">
-        <v>51</v>
+        <v>32</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="3">
+        <v>2</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>53</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
     </row>
     <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>1000</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C9" s="3">
         <v>175</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="E9" s="3">
         <v>512</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="2"/>
@@ -1093,67 +1015,111 @@
         <v>2</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
     </row>
     <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="2"/>
+      <c r="A10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="3">
+        <v>175</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="3">
+        <v>512</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="3">
+        <v>154</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="I10" s="1"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
+      <c r="K10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
     </row>
     <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="2"/>
+      <c r="A11" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="3">
+        <v>175</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="3">
+        <v>512</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="3">
+        <v>154</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="I11" s="1"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
+      <c r="K11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="12" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C12" s="3">
         <v>175</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E12" s="3">
         <v>512</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="2"/>
@@ -1161,105 +1127,67 @@
         <v>2</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
     <row r="13" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
-        <v>2000</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="3">
-        <v>175</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="3">
-        <v>512</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" s="3">
-        <v>154</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="2"/>
       <c r="I13" s="1"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>68</v>
-      </c>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
     <row r="14" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
-        <v>2000</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
       <c r="C14" s="1"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="3">
-        <v>512</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G14" s="3">
-        <v>154</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>70</v>
-      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="2"/>
       <c r="I14" s="1"/>
       <c r="J14" s="2"/>
-      <c r="K14" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
       <c r="M14" s="2"/>
-      <c r="N14" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="N14" s="2"/>
     </row>
     <row r="15" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>2000</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="C15" s="3">
         <v>175</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="E15" s="3">
         <v>512</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="2"/>
@@ -1267,13 +1195,13 @@
         <v>2</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -1283,33 +1211,33 @@
         <v>2000</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C16" s="3">
-        <v>363</v>
+        <v>175</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="E16" s="3">
         <v>512</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="G16" s="3">
         <v>154</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>83</v>
+        <v>67</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -1319,69 +1247,67 @@
         <v>2000</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="3">
-        <v>605</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>84</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="2"/>
       <c r="E17" s="3">
         <v>512</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="3">
-        <v>2</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>86</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G17" s="3">
+        <v>154</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="2"/>
       <c r="K17" s="2" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
+      <c r="N17" s="2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="18" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>2000</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C18" s="3">
         <v>175</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="E18" s="3">
         <v>512</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G18" s="3">
-        <v>154</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="3">
+        <v>2</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="K18" s="2" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -1391,87 +1317,127 @@
         <v>2000</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="C19" s="3">
-        <v>175</v>
+        <v>363</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E19" s="3">
         <v>512</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="3">
-        <v>2</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>96</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G19" s="3">
+        <v>154</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="2"/>
       <c r="K19" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
     <row r="20" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="2"/>
+      <c r="A20" s="3">
+        <v>2000</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="3">
+        <v>605</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="3">
+        <v>512</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="G20" s="1"/>
       <c r="H20" s="2"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
+      <c r="I20" s="3">
+        <v>2</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
     <row r="21" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="2"/>
+      <c r="A21" s="3">
+        <v>2000</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="3">
+        <v>175</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21" s="3">
+        <v>512</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G21" s="3">
+        <v>154</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="I21" s="1"/>
       <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
+      <c r="K21" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C22" s="3">
-        <v>1586</v>
+        <v>175</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E22" s="3">
         <v>512</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="2"/>
@@ -1479,10 +1445,14 @@
         <v>2</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
     </row>
@@ -1503,68 +1473,48 @@
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
-        <v>5000</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="3">
-        <v>175</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E24" s="3">
-        <v>512</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="A24" s="1"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="2"/>
       <c r="G24" s="1"/>
       <c r="H24" s="2"/>
-      <c r="I24" s="3">
-        <v>2</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
+      <c r="A25" s="3">
         <v>5000</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="1">
-        <v>175</v>
+      <c r="B25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1586</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E25" s="1">
+        <v>99</v>
+      </c>
+      <c r="E25" s="3">
         <v>512</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G25" s="1">
-        <v>154</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I25" s="1"/>
-      <c r="J25" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="3">
+        <v>2</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
@@ -1587,48 +1537,106 @@
       <c r="N26" s="2"/>
     </row>
     <row r="27" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="2"/>
+      <c r="A27" s="3">
+        <v>5000</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="3">
+        <v>175</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E27" s="3">
+        <v>512</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="G27" s="1"/>
       <c r="H27" s="2"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
+      <c r="I27" s="3">
+        <v>2</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
     </row>
     <row r="28" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="2"/>
+      <c r="A28" s="1">
+        <v>5000</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="1">
+        <v>175</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E28" s="1">
+        <v>512</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G28" s="1">
+        <v>154</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="I28" s="1"/>
       <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
+      <c r="K28" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="N28" s="2"/>
     </row>
     <row r="29" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="2"/>
+      <c r="A29" s="1">
+        <v>5000</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="1">
+        <v>175</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E29" s="1">
+        <v>512</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>113</v>
+      </c>
       <c r="G29" s="1"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="2"/>
+      <c r="I29" s="1">
+        <v>2</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
@@ -1683,9 +1691,7 @@
       <c r="N32" s="2"/>
     </row>
     <row r="33" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>106</v>
-      </c>
+      <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="1"/>
       <c r="D33" s="2"/>
@@ -1700,7 +1706,58 @@
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
     </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Experiments/DBCV_PointNet.xlsx
+++ b/Experiments/DBCV_PointNet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9190"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="64">
   <si>
     <t>TEST DATASET</t>
   </si>
@@ -156,6 +156,66 @@
   </si>
   <si>
     <t>91.684 secs</t>
+  </si>
+  <si>
+    <t>0.172</t>
+  </si>
+  <si>
+    <t>4497.151 secs</t>
+  </si>
+  <si>
+    <t>-0.125</t>
+  </si>
+  <si>
+    <t>755.647 secs</t>
+  </si>
+  <si>
+    <t>0.182 secs</t>
+  </si>
+  <si>
+    <t>-0.189</t>
+  </si>
+  <si>
+    <t>297.031 secs</t>
+  </si>
+  <si>
+    <t>3.960 secs</t>
+  </si>
+  <si>
+    <t>-0.332</t>
+  </si>
+  <si>
+    <t>237.640 secs</t>
+  </si>
+  <si>
+    <t>No reduction hence 64</t>
+  </si>
+  <si>
+    <t>2.396 secs</t>
+  </si>
+  <si>
+    <t>-0.339</t>
+  </si>
+  <si>
+    <t>161.604 secs</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>0.115 secs</t>
+  </si>
+  <si>
+    <t>-0.327</t>
+  </si>
+  <si>
+    <t>157.584 secs</t>
+  </si>
+  <si>
+    <t>0.205 secs</t>
+  </si>
+  <si>
+    <t>0.444 secs</t>
   </si>
 </sst>
 </file>
@@ -199,13 +259,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,23 +556,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="10" max="10" width="10.77734375" customWidth="1"/>
+    <col min="1" max="1" width="10.6328125" customWidth="1"/>
+    <col min="2" max="2" width="9.6328125" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="9.54296875" customWidth="1"/>
+    <col min="5" max="5" width="10.54296875" customWidth="1"/>
+    <col min="7" max="7" width="12.26953125" customWidth="1"/>
+    <col min="8" max="8" width="14.08984375" customWidth="1"/>
+    <col min="9" max="9" width="15.453125" customWidth="1"/>
+    <col min="10" max="10" width="16.1796875" customWidth="1"/>
     <col min="11" max="12" width="12" customWidth="1"/>
-    <col min="13" max="13" width="27.88671875" customWidth="1"/>
+    <col min="13" max="13" width="27.90625" customWidth="1"/>
+    <col min="14" max="14" width="78.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="1"/>
@@ -520,7 +596,7 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="1"/>
@@ -536,7 +612,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="1"/>
@@ -552,36 +628,36 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>11</v>
@@ -596,184 +672,1022 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
         <v>1000</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4">
+        <v>2</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5">
+      <c r="I5" s="4">
         <v>286</v>
       </c>
-      <c r="D5" t="s">
+      <c r="J5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I5">
+      <c r="K5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
+        <v>1000</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="4">
+        <v>232</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
+        <v>1000</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4">
         <v>2</v>
       </c>
-      <c r="J5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="G7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="4">
+        <v>175</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
         <v>1000</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C7">
+      <c r="I8" s="4">
         <v>175</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7">
+      <c r="J8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
+        <v>1000</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4">
         <v>2</v>
       </c>
-      <c r="J7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="G9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="4">
+        <v>175</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" s="4">
         <v>1000</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C9">
+      <c r="I10" s="4">
         <v>175</v>
       </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9">
+      <c r="J10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" s="4">
+        <v>1000</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4">
         <v>2</v>
       </c>
-      <c r="J9" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="G11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="4">
+        <v>175</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12" s="4">
         <v>1000</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C11">
+      <c r="I12" s="4">
         <v>175</v>
       </c>
-      <c r="D11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11">
+      <c r="J12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A15" s="4">
+        <v>2000</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4">
         <v>2</v>
       </c>
-      <c r="J11" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="G15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="4">
+        <v>626</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A16" s="4">
         <v>2000</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C15">
-        <v>626</v>
-      </c>
-      <c r="D15" t="s">
-        <v>35</v>
-      </c>
-      <c r="I15">
+      <c r="I16" s="4">
+        <v>436</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A17" s="4">
+        <v>2000</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4">
         <v>2</v>
       </c>
-      <c r="J15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="G17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="4">
+        <v>175</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A19" s="4">
         <v>2000</v>
       </c>
-      <c r="B17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4">
+        <v>2</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" s="4">
         <v>175</v>
       </c>
-      <c r="D17" t="s">
-        <v>37</v>
-      </c>
-      <c r="I17">
-        <v>2</v>
-      </c>
-      <c r="J17" t="s">
-        <v>38</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="L17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="J19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A22" s="4">
         <v>2000</v>
       </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19">
+      <c r="B22" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I22" s="4">
         <v>175</v>
       </c>
-      <c r="D19" t="s">
-        <v>43</v>
-      </c>
-      <c r="I19">
-        <v>2</v>
-      </c>
-      <c r="J19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+      <c r="J22" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A27" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="1"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B12:G12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Experiments/DBCV_PointNet.xlsx
+++ b/Experiments/DBCV_PointNet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="74">
   <si>
     <t>TEST DATASET</t>
   </si>
@@ -216,6 +216,36 @@
   </si>
   <si>
     <t>0.444 secs</t>
+  </si>
+  <si>
+    <t>-0.234</t>
+  </si>
+  <si>
+    <t>2115.777 secs</t>
+  </si>
+  <si>
+    <t>-0.502</t>
+  </si>
+  <si>
+    <t>756.480 secs</t>
+  </si>
+  <si>
+    <t>0.793 secs</t>
+  </si>
+  <si>
+    <t>20.607 secs</t>
+  </si>
+  <si>
+    <t>-0.617</t>
+  </si>
+  <si>
+    <t>749.487 secs</t>
+  </si>
+  <si>
+    <t>-0.462</t>
+  </si>
+  <si>
+    <t>764.222 secs</t>
   </si>
 </sst>
 </file>
@@ -259,7 +289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -267,13 +297,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -559,7 +592,7 @@
   <dimension ref="A1:N55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -698,7 +731,7 @@
       <c r="K5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="5" t="s">
         <v>18</v>
       </c>
       <c r="M5" s="4"/>
@@ -708,14 +741,14 @@
       <c r="A6" s="4">
         <v>1000</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="4" t="s">
         <v>15</v>
       </c>
@@ -725,7 +758,7 @@
       <c r="J6" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="6" t="s">
         <v>49</v>
       </c>
       <c r="L6" s="4" t="s">
@@ -757,7 +790,7 @@
       <c r="J7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="6" t="s">
         <v>31</v>
       </c>
       <c r="L7" s="4" t="s">
@@ -770,14 +803,14 @@
       <c r="A8" s="4">
         <v>1000</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
       <c r="H8" s="4" t="s">
         <v>20</v>
       </c>
@@ -787,7 +820,7 @@
       <c r="J8" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="6" t="s">
         <v>52</v>
       </c>
       <c r="L8" s="4" t="s">
@@ -819,7 +852,7 @@
       <c r="J9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="6" t="s">
         <v>32</v>
       </c>
       <c r="L9" s="4" t="s">
@@ -832,14 +865,14 @@
       <c r="A10" s="4">
         <v>1000</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
       <c r="H10" s="4" t="s">
         <v>24</v>
       </c>
@@ -849,7 +882,7 @@
       <c r="J10" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="6" t="s">
         <v>56</v>
       </c>
       <c r="L10" s="4" t="s">
@@ -885,7 +918,7 @@
       <c r="J11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="6" t="s">
         <v>33</v>
       </c>
       <c r="L11" s="4" t="s">
@@ -898,14 +931,14 @@
       <c r="A12" s="4">
         <v>1000</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
       <c r="H12" s="4" t="s">
         <v>27</v>
       </c>
@@ -915,7 +948,7 @@
       <c r="J12" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="6" t="s">
         <v>60</v>
       </c>
       <c r="L12" s="4" t="s">
@@ -992,12 +1025,14 @@
       <c r="A16" s="4">
         <v>2000</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+      <c r="B16" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
       <c r="H16" s="4" t="s">
         <v>15</v>
       </c>
@@ -1007,8 +1042,12 @@
       <c r="J16" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
+      <c r="K16" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
     </row>
@@ -1035,7 +1074,7 @@
       <c r="J17" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="K17" s="6" t="s">
         <v>40</v>
       </c>
       <c r="L17" s="4" t="s">
@@ -1045,18 +1084,32 @@
       <c r="N17" s="4"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
+      <c r="A18" s="4">
+        <v>2000</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="4">
+        <v>175</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
     </row>
@@ -1083,7 +1136,7 @@
       <c r="J19" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="K19" s="6" t="s">
         <v>46</v>
       </c>
       <c r="L19" s="4" t="s">
@@ -1093,30 +1146,52 @@
       <c r="N19" s="4"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
+      <c r="A20" s="4">
+        <v>2000</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" s="4">
+        <v>175</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A21" s="4"/>
+      <c r="A21" s="4">
+        <v>2000</v>
+      </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
+      <c r="H21" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
@@ -1128,14 +1203,14 @@
       <c r="A22" s="4">
         <v>2000</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
       <c r="H22" s="4" t="s">
         <v>27</v>
       </c>
@@ -1145,8 +1220,12 @@
       <c r="J22" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
+      <c r="K22" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
     </row>
@@ -1215,20 +1294,20 @@
       <c r="N26" s="4"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
     </row>
@@ -1681,12 +1760,16 @@
       <c r="N55" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="9">
+    <mergeCell ref="A27:L27"/>
     <mergeCell ref="B22:G22"/>
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="B8:G8"/>
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B20:G20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
